--- a/managementcmdfiles/data.xlsx
+++ b/managementcmdfiles/data.xlsx
@@ -5996,10 +5996,10 @@
   </sheetPr>
   <dimension ref="A1:Q1478"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="D2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="D316" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="J334" activeCellId="0" sqref="J334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20695,7 +20695,7 @@
         <v>20</v>
       </c>
       <c r="O334" s="13" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="P334" s="18"/>
       <c r="Q334" s="12" t="s">

--- a/managementcmdfiles/data.xlsx
+++ b/managementcmdfiles/data.xlsx
@@ -5997,12 +5997,12 @@
   <dimension ref="A1:Q1478"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="D316" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="D216" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J334" activeCellId="0" sqref="J334"/>
+      <selection pane="bottomLeft" activeCell="O1" activeCellId="0" sqref="O:O"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.22"/>
